--- a/data/Execution of the experiment with more repetitions.xlsx
+++ b/data/Execution of the experiment with more repetitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro Suarez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro Suarez\source\repos\PI-FinalProyect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADA423D4-D4E0-4AD6-8679-C16D87864427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138B5C2E-481A-4C94-9DE0-F15BF0E35D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{802EFD0D-4A59-4ECB-8055-7406D1247626}"/>
   </bookViews>
@@ -81,7 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -399,7 +400,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6175B242-1265-40D1-9A98-1F4B24FA4A9D}">
   <dimension ref="A1:B865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C533" sqref="C533"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -412,7 +415,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -420,7 +423,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -428,7 +431,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -436,7 +439,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -444,7 +447,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -452,7 +455,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -460,7 +463,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
@@ -468,7 +471,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
@@ -476,7 +479,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -484,7 +487,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -492,7 +495,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -500,7 +503,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -508,7 +511,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -516,7 +519,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -524,7 +527,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -532,7 +535,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -540,7 +543,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
@@ -548,7 +551,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
@@ -556,7 +559,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
@@ -564,7 +567,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
@@ -572,7 +575,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
@@ -580,7 +583,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
@@ -588,7 +591,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -596,7 +599,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
@@ -604,7 +607,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
@@ -612,7 +615,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
@@ -620,7 +623,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
@@ -628,7 +631,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
@@ -636,7 +639,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
@@ -644,7 +647,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
@@ -652,7 +655,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
@@ -660,7 +663,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
@@ -668,7 +671,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
@@ -676,7 +679,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
@@ -684,7 +687,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
@@ -692,7 +695,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
@@ -700,7 +703,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
@@ -708,7 +711,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
@@ -716,7 +719,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
@@ -724,7 +727,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
@@ -732,7 +735,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
@@ -740,7 +743,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
@@ -748,7 +751,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
@@ -756,7 +759,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
@@ -764,7 +767,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
@@ -780,7 +783,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
@@ -788,7 +791,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
@@ -796,7 +799,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
@@ -804,7 +807,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
@@ -820,7 +823,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
@@ -828,7 +831,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
@@ -836,7 +839,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
@@ -860,7 +863,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
@@ -868,7 +871,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
@@ -876,7 +879,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
@@ -884,7 +887,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B61" t="s">
@@ -892,7 +895,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
@@ -900,7 +903,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B63" t="s">
@@ -908,7 +911,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
@@ -924,7 +927,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
@@ -932,7 +935,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
@@ -940,7 +943,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B68" t="s">
@@ -948,7 +951,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
@@ -956,7 +959,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
@@ -972,7 +975,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
@@ -980,7 +983,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B73" t="s">
@@ -988,7 +991,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B75" t="s">
@@ -1004,7 +1007,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
@@ -1012,7 +1015,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B77" t="s">
@@ -1020,7 +1023,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B78" t="s">
@@ -1028,7 +1031,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
@@ -1036,7 +1039,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
@@ -1052,7 +1055,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
@@ -1060,7 +1063,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
@@ -1068,7 +1071,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
@@ -1076,7 +1079,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
@@ -1084,7 +1087,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
@@ -1100,7 +1103,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
@@ -1108,7 +1111,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
@@ -1116,7 +1119,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
@@ -1132,7 +1135,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
@@ -1140,7 +1143,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B93" t="s">
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B94" t="s">
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
@@ -1164,7 +1167,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
@@ -1172,7 +1175,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
@@ -1180,7 +1183,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98" t="s">
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B99" t="s">
@@ -1196,7 +1199,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B100" t="s">
@@ -1204,7 +1207,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B101" t="s">
@@ -1212,7 +1215,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
@@ -1220,7 +1223,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B103" t="s">
@@ -1228,7 +1231,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B104" t="s">
@@ -1236,7 +1239,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B105" t="s">
@@ -1244,7 +1247,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
@@ -1252,7 +1255,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B107" t="s">
@@ -1260,7 +1263,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B108" t="s">
@@ -1268,7 +1271,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B109" t="s">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
@@ -1284,7 +1287,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B111" t="s">
@@ -1292,7 +1295,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B112" t="s">
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B113" t="s">
@@ -1308,7 +1311,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B114" t="s">
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B115" t="s">
@@ -1324,7 +1327,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B116" t="s">
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B117" t="s">
@@ -1340,7 +1343,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" t="s">
@@ -1356,7 +1359,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B120" t="s">
@@ -1364,7 +1367,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B121" t="s">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
@@ -1380,7 +1383,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B123" t="s">
@@ -1388,7 +1391,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B124" t="s">
@@ -1396,7 +1399,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B125" t="s">
@@ -1404,7 +1407,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B126" t="s">
@@ -1412,7 +1415,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B127" t="s">
@@ -1420,7 +1423,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B128" t="s">
@@ -1428,7 +1431,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B129" t="s">
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" t="s">
@@ -1444,7 +1447,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B131" t="s">
@@ -1452,7 +1455,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B132" t="s">
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B133" t="s">
@@ -1468,7 +1471,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B134" t="s">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B135" t="s">
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B136" t="s">
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B137" t="s">
@@ -1500,7 +1503,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B138" t="s">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B139" t="s">
@@ -1516,7 +1519,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B140" t="s">
@@ -1524,7 +1527,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B141" t="s">
@@ -1532,7 +1535,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B142" t="s">
@@ -1540,7 +1543,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B143" t="s">
@@ -1548,7 +1551,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B144" t="s">
@@ -1556,7 +1559,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B145" t="s">
@@ -1564,7 +1567,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B146" t="s">
@@ -1572,7 +1575,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B147" t="s">
@@ -1580,7 +1583,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B148" t="s">
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B149" t="s">
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B150" t="s">
@@ -1604,7 +1607,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B151" t="s">
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B152" t="s">
@@ -1620,7 +1623,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B153" t="s">
@@ -1628,7 +1631,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B154" t="s">
@@ -1636,7 +1639,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B155" t="s">
@@ -1644,7 +1647,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B156" t="s">
@@ -1652,7 +1655,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B157" t="s">
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B158" t="s">
@@ -1668,7 +1671,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B159" t="s">
@@ -1676,7 +1679,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B160" t="s">
@@ -1684,7 +1687,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B161" t="s">
@@ -1692,7 +1695,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B162" t="s">
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B163" t="s">
@@ -1708,7 +1711,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B164" t="s">
@@ -1716,7 +1719,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B165" t="s">
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B166" t="s">
@@ -1732,7 +1735,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B167" t="s">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B168" t="s">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B169" t="s">
@@ -1756,7 +1759,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B170" t="s">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B171" t="s">
@@ -1772,7 +1775,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B172" t="s">
@@ -1780,7 +1783,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B173" t="s">
@@ -1788,7 +1791,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B174" t="s">
@@ -1796,7 +1799,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B175" t="s">
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B176" t="s">
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B177" t="s">
@@ -1820,7 +1823,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B178" t="s">
@@ -1828,7 +1831,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B179" t="s">
@@ -1836,7 +1839,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B180" t="s">
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B181" t="s">
@@ -1852,7 +1855,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B182" t="s">
@@ -1860,7 +1863,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B183" t="s">
@@ -1868,7 +1871,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B184" t="s">
@@ -1876,7 +1879,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B185" t="s">
@@ -1884,7 +1887,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B186" t="s">
@@ -1892,7 +1895,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" t="s">
@@ -1900,7 +1903,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B188" t="s">
@@ -1908,7 +1911,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B189" t="s">
@@ -1916,7 +1919,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
@@ -1924,7 +1927,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B191" t="s">
@@ -1932,7 +1935,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B192" t="s">
@@ -1940,7 +1943,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B193" t="s">
@@ -1948,7 +1951,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" t="s">
@@ -1956,7 +1959,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B195" t="s">
@@ -1964,7 +1967,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B196" t="s">
@@ -1972,7 +1975,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B197" t="s">
@@ -1980,7 +1983,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B198" t="s">
@@ -1988,7 +1991,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B199" t="s">
@@ -1996,7 +1999,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" t="s">
@@ -2004,7 +2007,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B201" t="s">
@@ -2012,7 +2015,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B202" t="s">
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B203" t="s">
@@ -2028,7 +2031,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B204" t="s">
@@ -2036,7 +2039,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B205" t="s">
@@ -2044,7 +2047,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B206" t="s">
@@ -2052,7 +2055,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B207" t="s">
@@ -2060,7 +2063,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B208" t="s">
@@ -2068,7 +2071,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B209" t="s">
@@ -2076,7 +2079,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B210" t="s">
@@ -2084,7 +2087,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B211" t="s">
@@ -2092,7 +2095,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B212" t="s">
@@ -2100,7 +2103,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B213" t="s">
@@ -2108,7 +2111,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B214" t="s">
@@ -2116,7 +2119,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B215" t="s">
@@ -2124,7 +2127,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B216" t="s">
@@ -2132,7 +2135,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B217" t="s">
@@ -2140,7 +2143,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B218" t="s">
@@ -2148,7 +2151,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B219" t="s">
@@ -2156,7 +2159,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B220" t="s">
@@ -2164,7 +2167,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B221" t="s">
@@ -2172,7 +2175,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B222" t="s">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B223" t="s">
@@ -2188,7 +2191,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B224" t="s">
@@ -2196,7 +2199,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B225" t="s">
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B226" t="s">
@@ -2212,7 +2215,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B227" t="s">
@@ -2220,7 +2223,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B228" t="s">
@@ -2228,7 +2231,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B229" t="s">
@@ -2236,7 +2239,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B230" t="s">
@@ -2244,7 +2247,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B231" t="s">
@@ -2252,7 +2255,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B232" t="s">
@@ -2260,7 +2263,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B233" t="s">
@@ -2268,7 +2271,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B234" t="s">
@@ -2276,7 +2279,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B235" t="s">
@@ -2284,7 +2287,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B236" t="s">
@@ -2292,7 +2295,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B237" t="s">
@@ -2300,7 +2303,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B238" t="s">
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B239" t="s">
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B240" t="s">
@@ -2324,7 +2327,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B241" t="s">
@@ -2332,7 +2335,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B242" t="s">
@@ -2340,7 +2343,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B243" t="s">
@@ -2348,23 +2351,23 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>2</v>
+      <c r="A244" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>2</v>
+      <c r="A245" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B245" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B246" t="s">
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B247" t="s">
@@ -2380,7 +2383,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B248" t="s">
@@ -2388,7 +2391,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B249" t="s">
@@ -2396,23 +2399,23 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>2</v>
+      <c r="A250" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>2</v>
+      <c r="A251" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B251" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B252" t="s">
@@ -2420,7 +2423,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B253" t="s">
@@ -2428,7 +2431,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B254" t="s">
@@ -2436,7 +2439,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B255" t="s">
@@ -2444,23 +2447,23 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>2</v>
+      <c r="A256" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B256" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>2</v>
+      <c r="A257" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B257" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B258" t="s">
@@ -2468,7 +2471,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B259" t="s">
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B260" t="s">
@@ -2484,7 +2487,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B261" t="s">
@@ -2492,23 +2495,23 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>2</v>
+      <c r="A262" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B262" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>2</v>
+      <c r="A263" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B263" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B264" t="s">
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B265" t="s">
@@ -2524,7 +2527,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="A266" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B266" t="s">
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="A267" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B267" t="s">
@@ -2540,7 +2543,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="A268" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B268" t="s">
@@ -2548,7 +2551,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B269" t="s">
@@ -2556,7 +2559,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="A270" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B270" t="s">
@@ -2564,7 +2567,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="A271" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B271" t="s">
@@ -2572,7 +2575,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="A272" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B272" t="s">
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="A273" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B273" t="s">
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B274" t="s">
@@ -2596,7 +2599,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B275" t="s">
@@ -2604,7 +2607,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="A276" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B276" t="s">
@@ -2612,7 +2615,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="A277" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B277" t="s">
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B278" t="s">
@@ -2628,7 +2631,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="A279" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B279" t="s">
@@ -2636,7 +2639,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="A280" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B280" t="s">
@@ -2644,7 +2647,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="A281" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B281" t="s">
@@ -2652,7 +2655,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="A282" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B282" t="s">
@@ -2660,7 +2663,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B283" t="s">
@@ -2668,7 +2671,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="A284" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B284" t="s">
@@ -2676,7 +2679,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="A285" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B285" t="s">
@@ -2684,7 +2687,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="A286" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B286" t="s">
@@ -2692,7 +2695,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B287" t="s">
@@ -2700,7 +2703,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="A288" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B288" t="s">
@@ -2708,7 +2711,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+      <c r="A289" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B289" t="s">
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="A290" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B290" t="s">
@@ -2724,7 +2727,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="A291" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B291" t="s">
@@ -2732,7 +2735,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B292" t="s">
@@ -2740,7 +2743,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B293" t="s">
@@ -2748,7 +2751,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="A294" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B294" t="s">
@@ -2756,7 +2759,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="A295" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B295" t="s">
@@ -2764,7 +2767,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B296" t="s">
@@ -2772,7 +2775,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="A297" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B297" t="s">
@@ -2780,7 +2783,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="A298" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B298" t="s">
@@ -2788,7 +2791,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="A299" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B299" t="s">
@@ -2796,7 +2799,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="A300" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B300" t="s">
@@ -2804,7 +2807,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B301" t="s">
@@ -2812,7 +2815,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="A302" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B302" t="s">
@@ -2820,7 +2823,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="A303" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B303" t="s">
@@ -2828,7 +2831,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="A304" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B304" t="s">
@@ -2836,7 +2839,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="A305" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B305" t="s">
@@ -2844,7 +2847,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="A306" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B306" t="s">
@@ -2852,7 +2855,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="A307" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B307" t="s">
@@ -2860,7 +2863,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="A308" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B308" t="s">
@@ -2868,7 +2871,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="A309" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B309" t="s">
@@ -2876,7 +2879,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+      <c r="A310" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B310" t="s">
@@ -2884,7 +2887,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="A311" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B311" t="s">
@@ -2892,7 +2895,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="A312" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B312" t="s">
@@ -2900,7 +2903,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="A313" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B313" t="s">
@@ -2908,7 +2911,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+      <c r="A314" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B314" t="s">
@@ -2916,7 +2919,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="A315" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B315" t="s">
@@ -2924,7 +2927,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="A316" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B316" t="s">
@@ -2932,7 +2935,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="A317" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B317" t="s">
@@ -2940,7 +2943,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="A318" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B318" t="s">
@@ -2948,7 +2951,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+      <c r="A319" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B319" t="s">
@@ -2956,7 +2959,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="A320" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B320" t="s">
@@ -2964,7 +2967,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="A321" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B321" t="s">
@@ -2972,7 +2975,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+      <c r="A322" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B322" t="s">
@@ -2980,7 +2983,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="A323" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B323" t="s">
@@ -2988,7 +2991,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B324" t="s">
@@ -2996,7 +2999,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="A325" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B325" t="s">
@@ -3004,7 +3007,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="A326" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B326" t="s">
@@ -3012,7 +3015,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+      <c r="A327" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B327" t="s">
@@ -3020,7 +3023,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="A328" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B328" t="s">
@@ -3028,7 +3031,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="A329" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B329" t="s">
@@ -3036,7 +3039,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+      <c r="A330" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B330" t="s">
@@ -3044,7 +3047,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+      <c r="A331" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B331" t="s">
@@ -3052,7 +3055,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B332" t="s">
@@ -3060,7 +3063,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B333" t="s">
@@ -3068,7 +3071,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B334" t="s">
@@ -3076,7 +3079,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B335" t="s">
@@ -3084,7 +3087,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B336" t="s">
@@ -3092,7 +3095,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B337" t="s">
@@ -3100,7 +3103,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B338" t="s">
@@ -3108,7 +3111,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B339" t="s">
@@ -3116,7 +3119,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B340" t="s">
@@ -3124,7 +3127,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B341" t="s">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B342" t="s">
@@ -3140,7 +3143,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B343" t="s">
@@ -3148,7 +3151,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B344" t="s">
@@ -3156,7 +3159,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B345" t="s">
@@ -3164,7 +3167,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B346" t="s">
@@ -3172,7 +3175,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B347" t="s">
@@ -3180,7 +3183,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B348" t="s">
@@ -3188,7 +3191,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B349" t="s">
@@ -3196,7 +3199,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B350" t="s">
@@ -3204,7 +3207,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B351" t="s">
@@ -3212,7 +3215,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B352" t="s">
@@ -3220,7 +3223,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B353" t="s">
@@ -3228,7 +3231,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B354" t="s">
@@ -3236,7 +3239,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B355" t="s">
@@ -3244,7 +3247,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B356" t="s">
@@ -3252,7 +3255,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B357" t="s">
@@ -3260,7 +3263,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B358" t="s">
@@ -3268,7 +3271,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B359" t="s">
@@ -3276,7 +3279,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B360" t="s">
@@ -3284,7 +3287,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B361" t="s">
@@ -3292,7 +3295,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B362" t="s">
@@ -3300,7 +3303,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B363" t="s">
@@ -3308,7 +3311,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B364" t="s">
@@ -3316,7 +3319,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B365" t="s">
@@ -3324,7 +3327,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B366" t="s">
@@ -3332,7 +3335,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B367" t="s">
@@ -3340,7 +3343,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B368" t="s">
@@ -3348,7 +3351,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B369" t="s">
@@ -3356,7 +3359,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B370" t="s">
@@ -3364,7 +3367,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B371" t="s">
@@ -3372,7 +3375,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B372" t="s">
@@ -3380,7 +3383,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B373" t="s">
@@ -3388,7 +3391,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B374" t="s">
@@ -3396,7 +3399,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B375" t="s">
@@ -3404,7 +3407,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B376" t="s">
@@ -3412,7 +3415,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B377" t="s">
@@ -3420,7 +3423,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B378" t="s">
@@ -3428,7 +3431,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B379" t="s">
@@ -3436,7 +3439,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B380" t="s">
@@ -3444,7 +3447,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+      <c r="A381" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B381" t="s">
@@ -3452,7 +3455,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B382" t="s">
@@ -3460,7 +3463,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B383" t="s">
@@ -3468,7 +3471,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B384" t="s">
@@ -3476,7 +3479,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B385" t="s">
@@ -3484,7 +3487,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B386" t="s">
@@ -3492,7 +3495,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B387" t="s">
@@ -3500,7 +3503,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B388" t="s">
@@ -3508,7 +3511,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B389" t="s">
@@ -3516,7 +3519,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B390" t="s">
@@ -3524,7 +3527,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B391" t="s">
@@ -3532,7 +3535,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B392" t="s">
@@ -3540,7 +3543,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B393" t="s">
@@ -3548,7 +3551,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B394" t="s">
@@ -3556,7 +3559,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B395" t="s">
@@ -3564,7 +3567,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B396" t="s">
@@ -3572,7 +3575,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B397" t="s">
@@ -3580,7 +3583,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="A398" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B398" t="s">
@@ -3588,7 +3591,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="A399" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B399" t="s">
@@ -3596,7 +3599,7 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
+      <c r="A400" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B400" t="s">
@@ -3604,7 +3607,7 @@
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+      <c r="A401" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B401" t="s">
@@ -3612,7 +3615,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="A402" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B402" t="s">
@@ -3620,7 +3623,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="A403" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B403" t="s">
@@ -3628,7 +3631,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B404" t="s">
@@ -3636,7 +3639,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="A405" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B405" t="s">
@@ -3644,7 +3647,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
+      <c r="A406" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B406" t="s">
@@ -3652,7 +3655,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="A407" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B407" t="s">
@@ -3660,7 +3663,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B408" t="s">
@@ -3668,7 +3671,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="A409" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B409" t="s">
@@ -3676,7 +3679,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="A410" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B410" t="s">
@@ -3684,7 +3687,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
+      <c r="A411" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B411" t="s">
@@ -3692,7 +3695,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="A412" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B412" t="s">
@@ -3700,7 +3703,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
+      <c r="A413" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B413" t="s">
@@ -3708,7 +3711,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B414" t="s">
@@ -3716,7 +3719,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="A415" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B415" t="s">
@@ -3724,7 +3727,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="A416" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B416" t="s">
@@ -3732,7 +3735,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="A417" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B417" t="s">
@@ -3740,7 +3743,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="A418" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B418" t="s">
@@ -3748,7 +3751,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B419" t="s">
@@ -3756,7 +3759,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B420" t="s">
@@ -3764,7 +3767,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="A421" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B421" t="s">
@@ -3772,7 +3775,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="A422" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B422" t="s">
@@ -3780,7 +3783,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="A423" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B423" t="s">
@@ -3788,7 +3791,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="A424" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B424" t="s">
@@ -3796,7 +3799,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B425" t="s">
@@ -3804,7 +3807,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B426" t="s">
@@ -3812,7 +3815,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="A427" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B427" t="s">
@@ -3820,7 +3823,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="A428" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B428" t="s">
@@ -3828,7 +3831,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
+      <c r="A429" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B429" t="s">
@@ -3836,7 +3839,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B430" t="s">
@@ -3844,7 +3847,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="A431" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B431" t="s">
@@ -3852,7 +3855,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="A432" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B432" t="s">
@@ -3860,7 +3863,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="A433" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B433" t="s">
@@ -3868,7 +3871,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
+      <c r="A434" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B434" t="s">
@@ -3876,7 +3879,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="A435" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B435" t="s">
@@ -3884,7 +3887,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B436" t="s">
@@ -3892,7 +3895,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B437" t="s">
@@ -3900,7 +3903,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B438" t="s">
@@ -3908,7 +3911,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B439" t="s">
@@ -3916,7 +3919,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B440" t="s">
@@ -3924,7 +3927,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B441" t="s">
@@ -3932,7 +3935,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B442" t="s">
@@ -3940,7 +3943,7 @@
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B443" t="s">
@@ -3948,7 +3951,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B444" t="s">
@@ -3956,7 +3959,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B445" t="s">
@@ -3964,7 +3967,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B446" t="s">
@@ -3972,7 +3975,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B447" t="s">
@@ -3980,7 +3983,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B448" t="s">
@@ -3988,7 +3991,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B449" t="s">
@@ -3996,7 +3999,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B450" t="s">
@@ -4004,7 +4007,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="A451" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B451" t="s">
@@ -4012,7 +4015,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="A452" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B452" t="s">
@@ -4020,7 +4023,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+      <c r="A453" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B453" t="s">
@@ -4028,7 +4031,7 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B454" t="s">
@@ -4036,7 +4039,7 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B455" t="s">
@@ -4044,7 +4047,7 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
+      <c r="A456" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B456" t="s">
@@ -4052,7 +4055,7 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="A457" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B457" t="s">
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="A458" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B458" t="s">
@@ -4068,7 +4071,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
+      <c r="A459" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B459" t="s">
@@ -4076,7 +4079,7 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="A460" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B460" t="s">
@@ -4084,7 +4087,7 @@
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="A461" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B461" t="s">
@@ -4092,7 +4095,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="A462" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B462" t="s">
@@ -4100,7 +4103,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="A463" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B463" t="s">
@@ -4108,7 +4111,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="A464" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B464" t="s">
@@ -4116,7 +4119,7 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="A465" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B465" t="s">
@@ -4124,7 +4127,7 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="A466" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B466" t="s">
@@ -4132,7 +4135,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="A467" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B467" t="s">
@@ -4140,7 +4143,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="A468" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B468" t="s">
@@ -4148,7 +4151,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="A469" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B469" t="s">
@@ -4156,7 +4159,7 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="A470" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B470" t="s">
@@ -4164,7 +4167,7 @@
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="A471" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B471" t="s">
@@ -4172,7 +4175,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="A472" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B472" t="s">
@@ -4180,7 +4183,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="A473" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B473" t="s">
@@ -4188,7 +4191,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="A474" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B474" t="s">
@@ -4196,7 +4199,7 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="A475" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B475" t="s">
@@ -4204,7 +4207,7 @@
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="A476" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B476" t="s">
@@ -4212,7 +4215,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="A477" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B477" t="s">
@@ -4220,7 +4223,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
+      <c r="A478" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B478" t="s">
@@ -4228,7 +4231,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+      <c r="A479" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B479" t="s">
@@ -4236,7 +4239,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="A480" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B480" t="s">
@@ -4244,7 +4247,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="A481" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B481" t="s">
@@ -4252,7 +4255,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="A482" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B482" t="s">
@@ -4260,7 +4263,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B483" t="s">
@@ -4268,7 +4271,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
+      <c r="A484" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B484" t="s">
@@ -4276,7 +4279,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="A485" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B485" t="s">
@@ -4284,7 +4287,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="A486" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B486" t="s">
@@ -4292,7 +4295,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B487" t="s">
@@ -4300,7 +4303,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B488" t="s">
@@ -4308,7 +4311,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="A489" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B489" t="s">
@@ -4316,7 +4319,7 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="A490" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B490" t="s">
@@ -4324,7 +4327,7 @@
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+      <c r="A491" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B491" t="s">
@@ -4332,7 +4335,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B492" t="s">
@@ -4340,7 +4343,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B493" t="s">
@@ -4348,7 +4351,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
+      <c r="A494" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B494" t="s">
@@ -4356,7 +4359,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="A495" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B495" t="s">
@@ -4364,7 +4367,7 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
+      <c r="A496" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B496" t="s">
@@ -4372,7 +4375,7 @@
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="A497" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B497" t="s">
@@ -4380,7 +4383,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="A498" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B498" t="s">
@@ -4388,7 +4391,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
+      <c r="A499" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B499" t="s">
@@ -4396,7 +4399,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
+      <c r="A500" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B500" t="s">
@@ -4404,7 +4407,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="A501" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B501" t="s">
@@ -4412,7 +4415,7 @@
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
+      <c r="A502" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B502" t="s">
@@ -4420,7 +4423,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="A503" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B503" t="s">
@@ -4428,7 +4431,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="A504" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B504" t="s">
@@ -4436,7 +4439,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B505" t="s">
@@ -4444,7 +4447,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="A506" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B506" t="s">
@@ -4452,7 +4455,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B507" t="s">
@@ -4460,7 +4463,7 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
+      <c r="A508" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B508" t="s">
@@ -4468,7 +4471,7 @@
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
+      <c r="A509" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B509" t="s">
@@ -4476,7 +4479,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
+      <c r="A510" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B510" t="s">
@@ -4484,7 +4487,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
+      <c r="A511" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B511" t="s">
@@ -4492,7 +4495,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
+      <c r="A512" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B512" t="s">
@@ -4500,7 +4503,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
+      <c r="A513" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B513" t="s">
@@ -4508,7 +4511,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
+      <c r="A514" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B514" t="s">
@@ -4516,7 +4519,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
+      <c r="A515" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B515" t="s">
@@ -4524,7 +4527,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
+      <c r="A516" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B516" t="s">
@@ -4532,7 +4535,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
+      <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B517" t="s">
@@ -4540,7 +4543,7 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
+      <c r="A518" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B518" t="s">
@@ -4548,7 +4551,7 @@
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
+      <c r="A519" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B519" t="s">
@@ -4556,7 +4559,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
+      <c r="A520" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B520" t="s">
@@ -4564,7 +4567,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
+      <c r="A521" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B521" t="s">
@@ -4572,7 +4575,7 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
+      <c r="A522" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B522" t="s">
@@ -4580,7 +4583,7 @@
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
+      <c r="A523" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B523" t="s">
@@ -4588,7 +4591,7 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
+      <c r="A524" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B524" t="s">
@@ -4596,7 +4599,7 @@
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
+      <c r="A525" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B525" t="s">
@@ -4604,7 +4607,7 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
+      <c r="A526" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B526" t="s">
@@ -4612,7 +4615,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
+      <c r="A527" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B527" t="s">
@@ -4620,7 +4623,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
+      <c r="A528" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B528" t="s">
@@ -4628,7 +4631,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+      <c r="A529" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B529" t="s">
@@ -4636,7 +4639,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
+      <c r="A530" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B530" t="s">
@@ -4644,7 +4647,7 @@
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
+      <c r="A531" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B531" t="s">
@@ -4652,15 +4655,15 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>2</v>
+      <c r="A532" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B532" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
+      <c r="A533" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B533" t="s">
@@ -4668,7 +4671,7 @@
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
+      <c r="A534" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B534" t="s">
@@ -4676,7 +4679,7 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
+      <c r="A535" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B535" t="s">
@@ -4684,7 +4687,7 @@
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
+      <c r="A536" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B536" t="s">
@@ -4692,7 +4695,7 @@
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
+      <c r="A537" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B537" t="s">
@@ -4700,15 +4703,15 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>2</v>
+      <c r="A538" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B538" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
+      <c r="A539" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B539" t="s">
@@ -4716,7 +4719,7 @@
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
+      <c r="A540" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B540" t="s">
@@ -4724,7 +4727,7 @@
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+      <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B541" t="s">
@@ -4732,7 +4735,7 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
+      <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B542" t="s">
@@ -4740,7 +4743,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
+      <c r="A543" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B543" t="s">
@@ -4748,23 +4751,23 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>2</v>
+      <c r="A544" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B544" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>2</v>
+      <c r="A545" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B545" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
+      <c r="A546" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B546" t="s">
@@ -4772,7 +4775,7 @@
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+      <c r="A547" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B547" t="s">
@@ -4780,7 +4783,7 @@
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
+      <c r="A548" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B548" t="s">
@@ -4788,7 +4791,7 @@
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+      <c r="A549" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B549" t="s">
@@ -4796,23 +4799,23 @@
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>2</v>
+      <c r="A550" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B550" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>2</v>
+      <c r="A551" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B551" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+      <c r="A552" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B552" t="s">
@@ -4820,7 +4823,7 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+      <c r="A553" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B553" t="s">
@@ -4828,7 +4831,7 @@
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
+      <c r="A554" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B554" t="s">
@@ -4836,7 +4839,7 @@
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
+      <c r="A555" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B555" t="s">
@@ -4844,7 +4847,7 @@
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+      <c r="A556" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B556" t="s">
@@ -4852,7 +4855,7 @@
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+      <c r="A557" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B557" t="s">
@@ -4860,7 +4863,7 @@
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
+      <c r="A558" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B558" t="s">
@@ -4868,7 +4871,7 @@
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
+      <c r="A559" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B559" t="s">
@@ -4876,7 +4879,7 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+      <c r="A560" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B560" t="s">
@@ -4884,7 +4887,7 @@
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+      <c r="A561" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B561" t="s">
@@ -4892,7 +4895,7 @@
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
+      <c r="A562" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B562" t="s">
@@ -4900,7 +4903,7 @@
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
+      <c r="A563" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B563" t="s">
@@ -4908,7 +4911,7 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
+      <c r="A564" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B564" t="s">
@@ -4916,7 +4919,7 @@
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
+      <c r="A565" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B565" t="s">
@@ -4924,7 +4927,7 @@
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
+      <c r="A566" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B566" t="s">
@@ -4932,7 +4935,7 @@
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="A567" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B567" t="s">
@@ -4940,7 +4943,7 @@
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+      <c r="A568" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B568" t="s">
@@ -4948,7 +4951,7 @@
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+      <c r="A569" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B569" t="s">
@@ -4956,7 +4959,7 @@
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
+      <c r="A570" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B570" t="s">
@@ -4964,7 +4967,7 @@
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
+      <c r="A571" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B571" t="s">
@@ -4972,7 +4975,7 @@
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B572" t="s">
@@ -4980,7 +4983,7 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
+      <c r="A573" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B573" t="s">
@@ -4988,7 +4991,7 @@
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
+      <c r="A574" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B574" t="s">
@@ -4996,7 +4999,7 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
+      <c r="A575" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B575" t="s">
@@ -5004,7 +5007,7 @@
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
+      <c r="A576" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B576" t="s">
@@ -5012,7 +5015,7 @@
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
+      <c r="A577" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B577" t="s">
@@ -5020,7 +5023,7 @@
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
+      <c r="A578" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B578" t="s">
@@ -5028,7 +5031,7 @@
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="A579" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B579" t="s">
@@ -5036,7 +5039,7 @@
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
+      <c r="A580" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B580" t="s">
@@ -5044,7 +5047,7 @@
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
+      <c r="A581" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B581" t="s">
@@ -5052,7 +5055,7 @@
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
+      <c r="A582" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B582" t="s">
@@ -5060,7 +5063,7 @@
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
+      <c r="A583" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B583" t="s">
@@ -5068,7 +5071,7 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
+      <c r="A584" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B584" t="s">
@@ -5076,7 +5079,7 @@
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
+      <c r="A585" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B585" t="s">
@@ -5084,7 +5087,7 @@
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
+      <c r="A586" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B586" t="s">
@@ -5092,7 +5095,7 @@
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
+      <c r="A587" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B587" t="s">
@@ -5100,7 +5103,7 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
+      <c r="A588" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B588" t="s">
@@ -5108,7 +5111,7 @@
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
+      <c r="A589" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B589" t="s">
@@ -5116,7 +5119,7 @@
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="A590" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B590" t="s">
@@ -5124,7 +5127,7 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+      <c r="A591" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B591" t="s">
@@ -5132,7 +5135,7 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
+      <c r="A592" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B592" t="s">
@@ -5140,7 +5143,7 @@
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+      <c r="A593" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B593" t="s">
@@ -5148,7 +5151,7 @@
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
+      <c r="A594" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B594" t="s">
@@ -5156,7 +5159,7 @@
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
+      <c r="A595" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B595" t="s">
@@ -5164,7 +5167,7 @@
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
+      <c r="A596" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B596" t="s">
@@ -5172,7 +5175,7 @@
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
+      <c r="A597" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B597" t="s">
@@ -5180,7 +5183,7 @@
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
+      <c r="A598" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B598" t="s">
@@ -5188,7 +5191,7 @@
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+      <c r="A599" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B599" t="s">
@@ -5196,7 +5199,7 @@
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="A600" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B600" t="s">
@@ -5204,7 +5207,7 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+      <c r="A601" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B601" t="s">
@@ -5212,7 +5215,7 @@
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+      <c r="A602" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B602" t="s">
@@ -5220,7 +5223,7 @@
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+      <c r="A603" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B603" t="s">
@@ -5228,7 +5231,7 @@
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="A604" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B604" t="s">
@@ -5236,7 +5239,7 @@
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
+      <c r="A605" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B605" t="s">
@@ -5244,7 +5247,7 @@
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
+      <c r="A606" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B606" t="s">
@@ -5252,7 +5255,7 @@
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
+      <c r="A607" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B607" t="s">
@@ -5260,7 +5263,7 @@
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="A608" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B608" t="s">
@@ -5268,7 +5271,7 @@
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="A609" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B609" t="s">
@@ -5276,7 +5279,7 @@
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+      <c r="A610" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B610" t="s">
@@ -5284,7 +5287,7 @@
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
+      <c r="A611" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B611" t="s">
@@ -5292,7 +5295,7 @@
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
+      <c r="A612" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B612" t="s">
@@ -5300,7 +5303,7 @@
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
+      <c r="A613" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B613" t="s">
@@ -5308,7 +5311,7 @@
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+      <c r="A614" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B614" t="s">
@@ -5316,7 +5319,7 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+      <c r="A615" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B615" t="s">
@@ -5324,7 +5327,7 @@
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
+      <c r="A616" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B616" t="s">
@@ -5332,7 +5335,7 @@
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="A617" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B617" t="s">
@@ -5340,7 +5343,7 @@
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+      <c r="A618" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B618" t="s">
@@ -5348,7 +5351,7 @@
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+      <c r="A619" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B619" t="s">
@@ -5356,7 +5359,7 @@
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+      <c r="A620" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B620" t="s">
@@ -5364,7 +5367,7 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+      <c r="A621" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B621" t="s">
@@ -5372,7 +5375,7 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
+      <c r="A622" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B622" t="s">
@@ -5380,7 +5383,7 @@
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
+      <c r="A623" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B623" t="s">
@@ -5388,7 +5391,7 @@
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
+      <c r="A624" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B624" t="s">
@@ -5396,7 +5399,7 @@
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="A625" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B625" t="s">
@@ -5404,7 +5407,7 @@
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="A626" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B626" t="s">
@@ -5412,7 +5415,7 @@
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="A627" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B627" t="s">
@@ -5420,7 +5423,7 @@
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
+      <c r="A628" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B628" t="s">
@@ -5428,7 +5431,7 @@
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
+      <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B629" t="s">
@@ -5436,7 +5439,7 @@
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
+      <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B630" t="s">
@@ -5444,7 +5447,7 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="A631" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B631" t="s">
@@ -5452,7 +5455,7 @@
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="A632" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B632" t="s">
@@ -5460,7 +5463,7 @@
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
+      <c r="A633" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B633" t="s">
@@ -5468,7 +5471,7 @@
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
+      <c r="A634" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B634" t="s">
@@ -5476,7 +5479,7 @@
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+      <c r="A635" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B635" t="s">
@@ -5484,7 +5487,7 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
+      <c r="A636" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B636" t="s">
@@ -5492,7 +5495,7 @@
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
+      <c r="A637" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B637" t="s">
@@ -5500,7 +5503,7 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
+      <c r="A638" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B638" t="s">
@@ -5508,7 +5511,7 @@
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
+      <c r="A639" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B639" t="s">
@@ -5516,7 +5519,7 @@
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
+      <c r="A640" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B640" t="s">
@@ -5524,7 +5527,7 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
+      <c r="A641" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B641" t="s">
@@ -5532,7 +5535,7 @@
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
+      <c r="A642" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B642" t="s">
@@ -5540,7 +5543,7 @@
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
+      <c r="A643" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B643" t="s">
@@ -5548,7 +5551,7 @@
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
+      <c r="A644" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B644" t="s">
@@ -5556,7 +5559,7 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
+      <c r="A645" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B645" t="s">
@@ -5564,7 +5567,7 @@
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
+      <c r="A646" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B646" t="s">
@@ -5572,7 +5575,7 @@
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
+      <c r="A647" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B647" t="s">
@@ -5580,7 +5583,7 @@
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
+      <c r="A648" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B648" t="s">
@@ -5588,7 +5591,7 @@
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
+      <c r="A649" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B649" t="s">
@@ -5596,7 +5599,7 @@
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+      <c r="A650" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B650" t="s">
@@ -5604,7 +5607,7 @@
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="A651" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B651" t="s">
@@ -5612,7 +5615,7 @@
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
+      <c r="A652" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B652" t="s">
@@ -5620,7 +5623,7 @@
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+      <c r="A653" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B653" t="s">
@@ -5628,7 +5631,7 @@
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+      <c r="A654" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B654" t="s">
@@ -5636,7 +5639,7 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+      <c r="A655" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B655" t="s">
@@ -5644,7 +5647,7 @@
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+      <c r="A656" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B656" t="s">
@@ -5652,7 +5655,7 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
+      <c r="A657" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B657" t="s">
@@ -5660,7 +5663,7 @@
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
+      <c r="A658" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B658" t="s">
@@ -5668,7 +5671,7 @@
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
+      <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B659" t="s">
@@ -5676,7 +5679,7 @@
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+      <c r="A660" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B660" t="s">
@@ -5684,7 +5687,7 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
+      <c r="A661" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B661" t="s">
@@ -5692,7 +5695,7 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
+      <c r="A662" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B662" t="s">
@@ -5700,7 +5703,7 @@
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
+      <c r="A663" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B663" t="s">
@@ -5708,7 +5711,7 @@
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
+      <c r="A664" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B664" t="s">
@@ -5716,7 +5719,7 @@
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
+      <c r="A665" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B665" t="s">
@@ -5724,7 +5727,7 @@
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
+      <c r="A666" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B666" t="s">
@@ -5732,7 +5735,7 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
+      <c r="A667" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B667" t="s">
@@ -5740,7 +5743,7 @@
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
+      <c r="A668" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B668" t="s">
@@ -5748,7 +5751,7 @@
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
+      <c r="A669" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B669" t="s">
@@ -5756,7 +5759,7 @@
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
+      <c r="A670" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B670" t="s">
@@ -5764,7 +5767,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
+      <c r="A671" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B671" t="s">
@@ -5772,7 +5775,7 @@
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
+      <c r="A672" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B672" t="s">
@@ -5780,7 +5783,7 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
+      <c r="A673" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B673" t="s">
@@ -5788,7 +5791,7 @@
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
+      <c r="A674" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B674" t="s">
@@ -5796,7 +5799,7 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
+      <c r="A675" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B675" t="s">
@@ -5804,7 +5807,7 @@
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
+      <c r="A676" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B676" t="s">
@@ -5812,7 +5815,7 @@
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
+      <c r="A677" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B677" t="s">
@@ -5820,7 +5823,7 @@
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
+      <c r="A678" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B678" t="s">
@@ -5828,7 +5831,7 @@
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
+      <c r="A679" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B679" t="s">
@@ -5836,7 +5839,7 @@
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+      <c r="A680" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B680" t="s">
@@ -5844,7 +5847,7 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+      <c r="A681" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B681" t="s">
@@ -5852,7 +5855,7 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+      <c r="A682" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B682" t="s">
@@ -5860,7 +5863,7 @@
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
+      <c r="A683" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B683" t="s">
@@ -5868,7 +5871,7 @@
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
+      <c r="A684" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B684" t="s">
@@ -5876,7 +5879,7 @@
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
+      <c r="A685" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B685" t="s">
@@ -5884,7 +5887,7 @@
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
+      <c r="A686" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B686" t="s">
@@ -5892,7 +5895,7 @@
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
+      <c r="A687" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B687" t="s">
@@ -5900,7 +5903,7 @@
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+      <c r="A688" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B688" t="s">
@@ -5908,7 +5911,7 @@
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
+      <c r="A689" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B689" t="s">
@@ -5916,7 +5919,7 @@
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+      <c r="A690" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B690" t="s">
@@ -5924,7 +5927,7 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+      <c r="A691" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B691" t="s">
@@ -5932,7 +5935,7 @@
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+      <c r="A692" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B692" t="s">
@@ -5940,7 +5943,7 @@
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
+      <c r="A693" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B693" t="s">
@@ -5948,7 +5951,7 @@
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+      <c r="A694" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B694" t="s">
@@ -5956,7 +5959,7 @@
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
+      <c r="A695" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B695" t="s">
@@ -5964,7 +5967,7 @@
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
+      <c r="A696" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B696" t="s">
@@ -5972,7 +5975,7 @@
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+      <c r="A697" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B697" t="s">
@@ -5980,7 +5983,7 @@
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
+      <c r="A698" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B698" t="s">
@@ -5988,7 +5991,7 @@
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+      <c r="A699" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B699" t="s">
@@ -5996,7 +5999,7 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+      <c r="A700" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B700" t="s">
@@ -6004,7 +6007,7 @@
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+      <c r="A701" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B701" t="s">
@@ -6012,7 +6015,7 @@
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+      <c r="A702" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B702" t="s">
@@ -6020,7 +6023,7 @@
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+      <c r="A703" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B703" t="s">
@@ -6028,7 +6031,7 @@
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
+      <c r="A704" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B704" t="s">
@@ -6036,7 +6039,7 @@
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
+      <c r="A705" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B705" t="s">
@@ -6044,7 +6047,7 @@
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
+      <c r="A706" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B706" t="s">
@@ -6052,7 +6055,7 @@
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
+      <c r="A707" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B707" t="s">
@@ -6060,7 +6063,7 @@
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
+      <c r="A708" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B708" t="s">
@@ -6068,7 +6071,7 @@
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+      <c r="A709" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B709" t="s">
@@ -6076,7 +6079,7 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
+      <c r="A710" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B710" t="s">
@@ -6084,7 +6087,7 @@
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
+      <c r="A711" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B711" t="s">
@@ -6092,7 +6095,7 @@
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+      <c r="A712" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B712" t="s">
@@ -6100,7 +6103,7 @@
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+      <c r="A713" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B713" t="s">
@@ -6108,7 +6111,7 @@
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+      <c r="A714" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B714" t="s">
@@ -6116,7 +6119,7 @@
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+      <c r="A715" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B715" t="s">
@@ -6124,7 +6127,7 @@
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
+      <c r="A716" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B716" t="s">
@@ -6132,7 +6135,7 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
+      <c r="A717" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B717" t="s">
@@ -6140,7 +6143,7 @@
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
+      <c r="A718" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B718" t="s">
@@ -6148,7 +6151,7 @@
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
+      <c r="A719" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B719" t="s">
@@ -6156,7 +6159,7 @@
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+      <c r="A720" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B720" t="s">
@@ -6164,7 +6167,7 @@
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+      <c r="A721" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B721" t="s">
@@ -6172,7 +6175,7 @@
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+      <c r="A722" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B722" t="s">
@@ -6180,7 +6183,7 @@
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+      <c r="A723" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B723" t="s">
@@ -6188,7 +6191,7 @@
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+      <c r="A724" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B724" t="s">
@@ -6196,7 +6199,7 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
+      <c r="A725" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B725" t="s">
@@ -6204,7 +6207,7 @@
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
+      <c r="A726" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B726" t="s">
@@ -6212,7 +6215,7 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
+      <c r="A727" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B727" t="s">
@@ -6220,7 +6223,7 @@
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
+      <c r="A728" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B728" t="s">
@@ -6228,7 +6231,7 @@
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
+      <c r="A729" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B729" t="s">
@@ -6236,7 +6239,7 @@
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+      <c r="A730" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B730" t="s">
@@ -6244,7 +6247,7 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
+      <c r="A731" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B731" t="s">
@@ -6252,7 +6255,7 @@
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
+      <c r="A732" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B732" t="s">
@@ -6260,7 +6263,7 @@
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+      <c r="A733" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B733" t="s">
@@ -6268,7 +6271,7 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
+      <c r="A734" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B734" t="s">
@@ -6276,7 +6279,7 @@
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+      <c r="A735" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B735" t="s">
@@ -6284,7 +6287,7 @@
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+      <c r="A736" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B736" t="s">
@@ -6292,7 +6295,7 @@
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
+      <c r="A737" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B737" t="s">
@@ -6300,7 +6303,7 @@
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
+      <c r="A738" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B738" t="s">
@@ -6308,7 +6311,7 @@
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
+      <c r="A739" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B739" t="s">
@@ -6316,7 +6319,7 @@
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
+      <c r="A740" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B740" t="s">
@@ -6324,7 +6327,7 @@
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
+      <c r="A741" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B741" t="s">
@@ -6332,7 +6335,7 @@
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
+      <c r="A742" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B742" t="s">
@@ -6340,7 +6343,7 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
+      <c r="A743" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B743" t="s">
@@ -6348,7 +6351,7 @@
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
+      <c r="A744" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B744" t="s">
@@ -6356,7 +6359,7 @@
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
+      <c r="A745" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B745" t="s">
@@ -6364,7 +6367,7 @@
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
+      <c r="A746" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B746" t="s">
@@ -6372,7 +6375,7 @@
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
+      <c r="A747" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B747" t="s">
@@ -6380,7 +6383,7 @@
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
+      <c r="A748" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B748" t="s">
@@ -6388,7 +6391,7 @@
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
+      <c r="A749" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B749" t="s">
@@ -6396,7 +6399,7 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
+      <c r="A750" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B750" t="s">
@@ -6404,7 +6407,7 @@
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
+      <c r="A751" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B751" t="s">
@@ -6412,7 +6415,7 @@
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
+      <c r="A752" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B752" t="s">
@@ -6420,7 +6423,7 @@
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
+      <c r="A753" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B753" t="s">
@@ -6428,7 +6431,7 @@
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
+      <c r="A754" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B754" t="s">
@@ -6436,7 +6439,7 @@
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
+      <c r="A755" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B755" t="s">
@@ -6444,7 +6447,7 @@
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
+      <c r="A756" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B756" t="s">
@@ -6452,7 +6455,7 @@
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+      <c r="A757" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B757" t="s">
@@ -6460,7 +6463,7 @@
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
+      <c r="A758" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B758" t="s">
@@ -6468,7 +6471,7 @@
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
+      <c r="A759" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B759" t="s">
@@ -6476,7 +6479,7 @@
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
+      <c r="A760" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B760" t="s">
@@ -6484,7 +6487,7 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
+      <c r="A761" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B761" t="s">
@@ -6492,7 +6495,7 @@
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
+      <c r="A762" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B762" t="s">
@@ -6500,7 +6503,7 @@
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
+      <c r="A763" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B763" t="s">
@@ -6508,7 +6511,7 @@
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
+      <c r="A764" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B764" t="s">
@@ -6516,7 +6519,7 @@
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
+      <c r="A765" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B765" t="s">
@@ -6524,7 +6527,7 @@
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
+      <c r="A766" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B766" t="s">
@@ -6532,7 +6535,7 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
+      <c r="A767" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B767" t="s">
@@ -6540,7 +6543,7 @@
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
+      <c r="A768" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B768" t="s">
@@ -6548,7 +6551,7 @@
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
+      <c r="A769" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B769" t="s">
@@ -6556,7 +6559,7 @@
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
+      <c r="A770" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B770" t="s">
@@ -6564,7 +6567,7 @@
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
+      <c r="A771" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B771" t="s">
@@ -6572,7 +6575,7 @@
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
+      <c r="A772" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B772" t="s">
@@ -6580,7 +6583,7 @@
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
+      <c r="A773" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B773" t="s">
@@ -6588,7 +6591,7 @@
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
+      <c r="A774" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B774" t="s">
@@ -6596,7 +6599,7 @@
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
+      <c r="A775" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B775" t="s">
@@ -6604,7 +6607,7 @@
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
+      <c r="A776" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B776" t="s">
@@ -6612,7 +6615,7 @@
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
+      <c r="A777" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B777" t="s">
@@ -6620,7 +6623,7 @@
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
+      <c r="A778" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B778" t="s">
@@ -6628,7 +6631,7 @@
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
+      <c r="A779" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B779" t="s">
@@ -6636,7 +6639,7 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
+      <c r="A780" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B780" t="s">
@@ -6644,7 +6647,7 @@
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
+      <c r="A781" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B781" t="s">
@@ -6652,7 +6655,7 @@
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
+      <c r="A782" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B782" t="s">
@@ -6660,7 +6663,7 @@
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
+      <c r="A783" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B783" t="s">
@@ -6668,7 +6671,7 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
+      <c r="A784" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B784" t="s">
@@ -6676,7 +6679,7 @@
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
+      <c r="A785" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B785" t="s">
@@ -6684,7 +6687,7 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
+      <c r="A786" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B786" t="s">
@@ -6692,7 +6695,7 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
+      <c r="A787" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B787" t="s">
@@ -6700,7 +6703,7 @@
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
+      <c r="A788" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B788" t="s">
@@ -6708,7 +6711,7 @@
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
+      <c r="A789" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B789" t="s">
@@ -6716,7 +6719,7 @@
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
+      <c r="A790" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B790" t="s">
@@ -6724,7 +6727,7 @@
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
+      <c r="A791" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B791" t="s">
@@ -6732,7 +6735,7 @@
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
+      <c r="A792" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B792" t="s">
@@ -6740,7 +6743,7 @@
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
+      <c r="A793" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B793" t="s">
@@ -6748,7 +6751,7 @@
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
+      <c r="A794" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B794" t="s">
@@ -6756,7 +6759,7 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
+      <c r="A795" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B795" t="s">
@@ -6764,7 +6767,7 @@
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
+      <c r="A796" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B796" t="s">
@@ -6772,7 +6775,7 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
+      <c r="A797" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B797" t="s">
@@ -6780,7 +6783,7 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
+      <c r="A798" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B798" t="s">
@@ -6788,7 +6791,7 @@
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
+      <c r="A799" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B799" t="s">
@@ -6796,7 +6799,7 @@
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
+      <c r="A800" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B800" t="s">
@@ -6804,7 +6807,7 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
+      <c r="A801" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B801" t="s">
@@ -6812,7 +6815,7 @@
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
+      <c r="A802" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B802" t="s">
@@ -6820,7 +6823,7 @@
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
+      <c r="A803" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B803" t="s">
@@ -6828,7 +6831,7 @@
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
+      <c r="A804" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B804" t="s">
@@ -6836,7 +6839,7 @@
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
+      <c r="A805" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B805" t="s">
@@ -6844,7 +6847,7 @@
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
+      <c r="A806" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B806" t="s">
@@ -6852,7 +6855,7 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
+      <c r="A807" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B807" t="s">
@@ -6860,7 +6863,7 @@
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
+      <c r="A808" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B808" t="s">
@@ -6868,7 +6871,7 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
+      <c r="A809" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B809" t="s">
@@ -6876,7 +6879,7 @@
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
+      <c r="A810" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B810" t="s">
@@ -6884,7 +6887,7 @@
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
+      <c r="A811" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B811" t="s">
@@ -6892,7 +6895,7 @@
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
+      <c r="A812" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B812" t="s">
@@ -6900,7 +6903,7 @@
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
+      <c r="A813" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B813" t="s">
@@ -6908,7 +6911,7 @@
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
+      <c r="A814" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B814" t="s">
@@ -6916,7 +6919,7 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
+      <c r="A815" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B815" t="s">
@@ -6924,7 +6927,7 @@
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
+      <c r="A816" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B816" t="s">
@@ -6932,7 +6935,7 @@
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
+      <c r="A817" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B817" t="s">
@@ -6940,7 +6943,7 @@
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
+      <c r="A818" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B818" t="s">
@@ -6948,7 +6951,7 @@
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
+      <c r="A819" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B819" t="s">
@@ -6956,15 +6959,15 @@
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>2</v>
+      <c r="A820" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B820" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
+      <c r="A821" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B821" t="s">
@@ -6972,7 +6975,7 @@
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
+      <c r="A822" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B822" t="s">
@@ -6980,7 +6983,7 @@
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
+      <c r="A823" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B823" t="s">
@@ -6988,7 +6991,7 @@
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
+      <c r="A824" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B824" t="s">
@@ -6996,7 +6999,7 @@
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
+      <c r="A825" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B825" t="s">
@@ -7004,23 +7007,23 @@
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>2</v>
+      <c r="A826" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B826" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>2</v>
+      <c r="A827" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B827" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
+      <c r="A828" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B828" t="s">
@@ -7028,7 +7031,7 @@
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
+      <c r="A829" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B829" t="s">
@@ -7036,7 +7039,7 @@
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
+      <c r="A830" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B830" t="s">
@@ -7044,7 +7047,7 @@
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
+      <c r="A831" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B831" t="s">
@@ -7052,23 +7055,23 @@
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>2</v>
+      <c r="A832" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B832" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
-        <v>2</v>
+      <c r="A833" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B833" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
+      <c r="A834" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B834" t="s">
@@ -7076,7 +7079,7 @@
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
+      <c r="A835" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B835" t="s">
@@ -7084,7 +7087,7 @@
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
+      <c r="A836" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B836" t="s">
@@ -7092,7 +7095,7 @@
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
+      <c r="A837" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B837" t="s">
@@ -7100,7 +7103,7 @@
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
+      <c r="A838" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B838" t="s">
@@ -7108,15 +7111,15 @@
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
-        <v>2</v>
+      <c r="A839" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B839" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
+      <c r="A840" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B840" t="s">
@@ -7124,7 +7127,7 @@
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
+      <c r="A841" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B841" t="s">
@@ -7132,7 +7135,7 @@
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
+      <c r="A842" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B842" t="s">
@@ -7140,7 +7143,7 @@
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
+      <c r="A843" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B843" t="s">
@@ -7148,7 +7151,7 @@
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
+      <c r="A844" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B844" t="s">
@@ -7156,7 +7159,7 @@
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
+      <c r="A845" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B845" t="s">
@@ -7164,7 +7167,7 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
+      <c r="A846" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B846" t="s">
@@ -7172,7 +7175,7 @@
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
+      <c r="A847" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B847" t="s">
@@ -7180,7 +7183,7 @@
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
+      <c r="A848" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B848" t="s">
@@ -7188,7 +7191,7 @@
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+      <c r="A849" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B849" t="s">
@@ -7196,7 +7199,7 @@
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
+      <c r="A850" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B850" t="s">
@@ -7204,7 +7207,7 @@
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
+      <c r="A851" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B851" t="s">
@@ -7212,7 +7215,7 @@
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
+      <c r="A852" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B852" t="s">
@@ -7220,7 +7223,7 @@
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
+      <c r="A853" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B853" t="s">
@@ -7228,7 +7231,7 @@
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
+      <c r="A854" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B854" t="s">
@@ -7236,7 +7239,7 @@
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
+      <c r="A855" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B855" t="s">
@@ -7244,7 +7247,7 @@
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
+      <c r="A856" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B856" t="s">
@@ -7252,7 +7255,7 @@
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
+      <c r="A857" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B857" t="s">
@@ -7260,7 +7263,7 @@
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
+      <c r="A858" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B858" t="s">
@@ -7268,7 +7271,7 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
+      <c r="A859" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B859" t="s">
@@ -7276,7 +7279,7 @@
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
+      <c r="A860" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B860" t="s">
@@ -7284,7 +7287,7 @@
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
+      <c r="A861" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B861" t="s">
@@ -7292,7 +7295,7 @@
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
+      <c r="A862" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B862" t="s">
@@ -7300,7 +7303,7 @@
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
+      <c r="A863" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B863" t="s">
@@ -7308,7 +7311,7 @@
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
+      <c r="A864" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B864" t="s">
@@ -7316,7 +7319,7 @@
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A865" t="s">
+      <c r="A865" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B865" t="s">
